--- a/biology/Médecine/Georg_Lomer/Georg_Lomer.xlsx
+++ b/biology/Médecine/Georg_Lomer/Georg_Lomer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Lomer, né le 12 septembre 1877 à Losten près de Wismar et décédé le 11 mars 1957[1], est un psychiatre, essayiste et ésotériste allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Lomer, né le 12 septembre 1877 à Losten près de Wismar et décédé le 11 mars 1957, est un psychiatre, essayiste et ésotériste allemand.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Lomer reçoit une formation de médecin[2]. Il se spécialisa en psychiatrie[3]. Il est arrêté par la Gestapo en 1937 en raison de ses publications, puis une seconde fois en 1941[4].
-Franz Bardon s'intéresse de près à son œuvre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Lomer reçoit une formation de médecin. Il se spécialisa en psychiatrie. Il est arrêté par la Gestapo en 1937 en raison de ses publications, puis une seconde fois en 1941.
+Franz Bardon s'intéresse de près à son œuvre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jesus Christus vom Standpunkte des Psychiaters. Eine kritische Studie für Fachleuchte und gebildete Laien. Handels-Druckerei, Bamberg, 1905.
 Die Mystik des Traumes. (Die Okkulte Welt 34). J. Baum, Pfullingen, 1921.
